--- a/lipid droplet/12425__analysis_by_image.xlsx
+++ b/lipid droplet/12425__analysis_by_image.xlsx
@@ -614,10 +614,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G7" t="n">
-        <v>158</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8">
@@ -627,10 +627,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>1007</v>
+        <v>997</v>
       </c>
       <c r="D8" t="n">
         <v>3</v>
@@ -652,22 +652,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>12</v>
+        <v>1409</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E9" t="n">
-        <v>294</v>
+        <v>3092</v>
       </c>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G9" t="n">
-        <v>198</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10">
@@ -677,16 +677,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>6318</v>
+        <v>5876</v>
       </c>
       <c r="D10" t="n">
         <v>4</v>
       </c>
       <c r="E10" t="n">
-        <v>2663</v>
+        <v>2532</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -702,16 +702,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>217</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -727,10 +727,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>1266</v>
+        <v>1256</v>
       </c>
       <c r="D12" t="n">
         <v>5</v>
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
-        <v>437</v>
+        <v>5797</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G17" t="n">
-        <v>852</v>
+        <v>619</v>
       </c>
     </row>
     <row r="18">
@@ -889,10 +889,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G18" t="n">
-        <v>419</v>
+        <v>378</v>
       </c>
     </row>
     <row r="19">
@@ -939,10 +939,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G20" t="n">
-        <v>1376</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="21">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>570</v>
+        <v>548</v>
       </c>
       <c r="D21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E21" t="n">
-        <v>3489</v>
+        <v>3033</v>
       </c>
       <c r="F21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G21" t="n">
-        <v>241</v>
+        <v>697</v>
       </c>
     </row>
     <row r="22">
@@ -977,22 +977,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C22" t="n">
-        <v>545</v>
+        <v>518</v>
       </c>
       <c r="D22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E22" t="n">
-        <v>2734</v>
+        <v>2362</v>
       </c>
       <c r="F22" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G22" t="n">
-        <v>958</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="23">
@@ -1002,10 +1002,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" t="n">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="D23" t="n">
         <v>2</v>
@@ -1030,13 +1030,13 @@
         <v>2</v>
       </c>
       <c r="C24" t="n">
-        <v>476</v>
+        <v>503</v>
       </c>
       <c r="D24" t="n">
         <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>1209</v>
+        <v>1236</v>
       </c>
       <c r="F24" t="n">
         <v>4</v>
@@ -1052,22 +1052,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C25" t="n">
-        <v>1109</v>
+        <v>1048</v>
       </c>
       <c r="D25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E25" t="n">
-        <v>2374</v>
+        <v>2112</v>
       </c>
       <c r="F25" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G25" t="n">
-        <v>330</v>
+        <v>592</v>
       </c>
     </row>
     <row r="26">
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="D26" t="n">
         <v>2</v>
       </c>
       <c r="E26" t="n">
-        <v>2362</v>
+        <v>2399</v>
       </c>
       <c r="F26" t="n">
         <v>2</v>
@@ -1102,16 +1102,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C27" t="n">
-        <v>3464</v>
+        <v>3934</v>
       </c>
       <c r="D27" t="n">
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>1190</v>
+        <v>1161</v>
       </c>
       <c r="F27" t="n">
         <v>1</v>
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C28" t="n">
-        <v>2259</v>
+        <v>2195</v>
       </c>
       <c r="D28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E28" t="n">
-        <v>702</v>
+        <v>646</v>
       </c>
       <c r="F28" t="n">
         <v>3</v>
       </c>
       <c r="G28" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29">
@@ -1152,10 +1152,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C29" t="n">
-        <v>3539</v>
+        <v>3211</v>
       </c>
       <c r="D29" t="n">
         <v>9</v>
@@ -1164,10 +1164,10 @@
         <v>1892</v>
       </c>
       <c r="F29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G29" t="n">
-        <v>362</v>
+        <v>337</v>
       </c>
     </row>
     <row r="30">
@@ -1177,16 +1177,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C30" t="n">
-        <v>9213</v>
+        <v>8474</v>
       </c>
       <c r="D30" t="n">
         <v>17</v>
       </c>
       <c r="E30" t="n">
-        <v>3910</v>
+        <v>3377</v>
       </c>
       <c r="F30" t="n">
         <v>4</v>
@@ -1202,16 +1202,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C31" t="n">
-        <v>5088</v>
+        <v>4915</v>
       </c>
       <c r="D31" t="n">
         <v>11</v>
       </c>
       <c r="E31" t="n">
-        <v>2584</v>
+        <v>2572</v>
       </c>
       <c r="F31" t="n">
         <v>9</v>
@@ -1227,22 +1227,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>4159</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1354</v>
       </c>
       <c r="F32" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G32" t="n">
-        <v>210</v>
+        <v>486</v>
       </c>
     </row>
     <row r="33">
@@ -1252,22 +1252,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C33" t="n">
-        <v>9718</v>
+        <v>9751</v>
       </c>
       <c r="D33" t="n">
         <v>4</v>
       </c>
       <c r="E33" t="n">
-        <v>8456</v>
+        <v>8620</v>
       </c>
       <c r="F33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G33" t="n">
-        <v>128</v>
+        <v>770</v>
       </c>
     </row>
     <row r="34">
@@ -1277,22 +1277,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C34" t="n">
-        <v>7141</v>
+        <v>9752</v>
       </c>
       <c r="D34" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E34" t="n">
-        <v>6633</v>
+        <v>12621</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G34" t="n">
-        <v>69</v>
+        <v>339</v>
       </c>
     </row>
     <row r="35">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C35" t="n">
-        <v>9389</v>
+        <v>4667</v>
       </c>
       <c r="D35" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E35" t="n">
-        <v>10152</v>
+        <v>3938</v>
       </c>
       <c r="F35" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G35" t="n">
-        <v>675</v>
+        <v>873</v>
       </c>
     </row>
     <row r="36">
@@ -1330,19 +1330,19 @@
         <v>4</v>
       </c>
       <c r="C36" t="n">
-        <v>3304</v>
+        <v>4333</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E36" t="n">
-        <v>4450</v>
+        <v>5500</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>446</v>
       </c>
     </row>
     <row r="37">
@@ -1352,22 +1352,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C37" t="n">
-        <v>1849</v>
+        <v>6710</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E37" t="n">
-        <v>5977</v>
+        <v>9450</v>
       </c>
       <c r="F37" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G37" t="n">
-        <v>515</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="38">
@@ -1377,22 +1377,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>5581</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>4373</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1402,22 +1402,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C39" t="n">
-        <v>7930</v>
+        <v>3801</v>
       </c>
       <c r="D39" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E39" t="n">
-        <v>1727</v>
+        <v>498</v>
       </c>
       <c r="F39" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G39" t="n">
-        <v>454</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40">
@@ -1427,16 +1427,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C40" t="n">
-        <v>4946</v>
+        <v>4619</v>
       </c>
       <c r="D40" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E40" t="n">
-        <v>2854</v>
+        <v>2012</v>
       </c>
       <c r="F40" t="n">
         <v>8</v>
@@ -1455,19 +1455,19 @@
         <v>25</v>
       </c>
       <c r="C41" t="n">
-        <v>4973</v>
+        <v>8862</v>
       </c>
       <c r="D41" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E41" t="n">
-        <v>1054</v>
+        <v>1213</v>
       </c>
       <c r="F41" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G41" t="n">
-        <v>811</v>
+        <v>687</v>
       </c>
     </row>
     <row r="42">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C42" t="n">
-        <v>7401</v>
+        <v>6802</v>
       </c>
       <c r="D42" t="n">
         <v>8</v>
       </c>
       <c r="E42" t="n">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="F42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G42" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43">
@@ -1502,22 +1502,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C43" t="n">
-        <v>10084</v>
+        <v>10006</v>
       </c>
       <c r="D43" t="n">
         <v>13</v>
       </c>
       <c r="E43" t="n">
-        <v>2561</v>
+        <v>2694</v>
       </c>
       <c r="F43" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G43" t="n">
-        <v>498</v>
+        <v>544</v>
       </c>
     </row>
     <row r="44">
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>6</v>
+      </c>
+      <c r="C44" t="n">
+        <v>7335</v>
+      </c>
+      <c r="D44" t="n">
+        <v>9</v>
+      </c>
+      <c r="E44" t="n">
+        <v>936</v>
+      </c>
+      <c r="F44" t="n">
         <v>2</v>
       </c>
-      <c r="C44" t="n">
-        <v>956</v>
-      </c>
-      <c r="D44" t="n">
-        <v>4</v>
-      </c>
-      <c r="E44" t="n">
-        <v>653</v>
-      </c>
-      <c r="F44" t="n">
-        <v>6</v>
-      </c>
       <c r="G44" t="n">
-        <v>359</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45">
@@ -1552,22 +1552,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C45" t="n">
-        <v>7133</v>
+        <v>6688</v>
       </c>
       <c r="D45" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E45" t="n">
-        <v>7136</v>
+        <v>5942</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>310</v>
       </c>
     </row>
     <row r="46">
@@ -1577,16 +1577,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C46" t="n">
-        <v>5907</v>
+        <v>6443</v>
       </c>
       <c r="D46" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>8214</v>
+        <v>9532</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -1602,16 +1602,16 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>3847</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>3278</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
@@ -1627,22 +1627,22 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C48" t="n">
-        <v>629</v>
+        <v>4144</v>
       </c>
       <c r="D48" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E48" t="n">
-        <v>9792</v>
+        <v>10520</v>
       </c>
       <c r="F48" t="n">
         <v>6</v>
       </c>
       <c r="G48" t="n">
-        <v>2801</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="49">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C49" t="n">
-        <v>8564</v>
+        <v>10269</v>
       </c>
       <c r="D49" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E49" t="n">
-        <v>10354</v>
+        <v>14590</v>
       </c>
       <c r="F49" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G49" t="n">
-        <v>525</v>
+        <v>877</v>
       </c>
     </row>
     <row r="50">
@@ -1677,22 +1677,22 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C50" t="n">
-        <v>3277</v>
+        <v>14545</v>
       </c>
       <c r="D50" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E50" t="n">
-        <v>3207</v>
+        <v>12658</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G50" t="n">
-        <v>139</v>
+        <v>365</v>
       </c>
     </row>
     <row r="51">
@@ -1789,10 +1789,10 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55">
@@ -1858,16 +1858,16 @@
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>3443</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G57" t="n">
-        <v>2012</v>
+        <v>5455</v>
       </c>
     </row>
     <row r="58">
@@ -1877,22 +1877,22 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C58" t="n">
-        <v>1516</v>
+        <v>1507</v>
       </c>
       <c r="D58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E58" t="n">
-        <v>2269</v>
+        <v>2130</v>
       </c>
       <c r="F58" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G58" t="n">
-        <v>143</v>
+        <v>282</v>
       </c>
     </row>
     <row r="59">
@@ -1902,22 +1902,22 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C59" t="n">
-        <v>1987</v>
+        <v>1944</v>
       </c>
       <c r="D59" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E59" t="n">
-        <v>2845</v>
+        <v>2817</v>
       </c>
       <c r="F59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G59" t="n">
-        <v>160</v>
+        <v>188</v>
       </c>
     </row>
     <row r="60">
@@ -1927,22 +1927,22 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C60" t="n">
-        <v>713</v>
+        <v>699</v>
       </c>
       <c r="D60" t="n">
+        <v>3</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1240</v>
+      </c>
+      <c r="F60" t="n">
         <v>4</v>
       </c>
-      <c r="E60" t="n">
-        <v>1350</v>
-      </c>
-      <c r="F60" t="n">
-        <v>3</v>
-      </c>
       <c r="G60" t="n">
-        <v>211</v>
+        <v>321</v>
       </c>
     </row>
     <row r="61">
@@ -1952,22 +1952,22 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>4970</v>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E61" t="n">
-        <v>447</v>
+        <v>3223</v>
       </c>
       <c r="F61" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G61" t="n">
-        <v>2827</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62">
@@ -2064,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G65" t="n">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="66">
@@ -2102,10 +2102,10 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>424</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>804</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C70" t="n">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="D70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E70" t="n">
-        <v>1280</v>
+        <v>1175</v>
       </c>
       <c r="F70" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G70" t="n">
-        <v>952</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="71">
@@ -2227,22 +2227,22 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E72" t="n">
-        <v>402</v>
+        <v>866</v>
       </c>
       <c r="F72" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G72" t="n">
-        <v>1386</v>
+        <v>922</v>
       </c>
     </row>
     <row r="73">
@@ -2252,22 +2252,22 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>2634</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>3679</v>
       </c>
       <c r="F73" t="n">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="G73" t="n">
-        <v>4414</v>
+        <v>735</v>
       </c>
     </row>
     <row r="74">
@@ -2277,22 +2277,22 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>1852</v>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E74" t="n">
-        <v>1159</v>
+        <v>1659</v>
       </c>
       <c r="F74" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G74" t="n">
-        <v>2263</v>
+        <v>1763</v>
       </c>
     </row>
   </sheetData>

--- a/lipid droplet/12425__analysis_by_image.xlsx
+++ b/lipid droplet/12425__analysis_by_image.xlsx
@@ -617,7 +617,7 @@
         <v>7</v>
       </c>
       <c r="G7" t="n">
-        <v>277</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8">
@@ -627,22 +627,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>997</v>
+        <v>3086</v>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>2245</v>
+        <v>2265</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>144</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9">
@@ -655,19 +655,19 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>1409</v>
+        <v>128</v>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>3092</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G9" t="n">
-        <v>334</v>
+        <v>3426</v>
       </c>
     </row>
     <row r="10">
@@ -677,22 +677,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>5876</v>
+        <v>75</v>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>2532</v>
+        <v>80</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="11">
@@ -702,16 +702,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1176</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>1256</v>
+        <v>1809</v>
       </c>
       <c r="D12" t="n">
         <v>5</v>
@@ -755,7 +755,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
-        <v>5797</v>
+        <v>1167</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -789,10 +789,10 @@
         <v>195</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
@@ -839,10 +839,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G17" t="n">
-        <v>619</v>
+        <v>852</v>
       </c>
     </row>
     <row r="18">
@@ -889,10 +889,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G18" t="n">
-        <v>378</v>
+        <v>487</v>
       </c>
     </row>
     <row r="19">
@@ -939,10 +939,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G20" t="n">
-        <v>1398</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="21">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>548</v>
+        <v>3308</v>
       </c>
       <c r="D21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E21" t="n">
-        <v>3033</v>
+        <v>3489</v>
       </c>
       <c r="F21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>697</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22">
@@ -977,22 +977,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C22" t="n">
-        <v>518</v>
+        <v>5534</v>
       </c>
       <c r="D22" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E22" t="n">
-        <v>2362</v>
+        <v>3384</v>
       </c>
       <c r="F22" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G22" t="n">
-        <v>1330</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23">
@@ -1005,7 +1005,7 @@
         <v>3</v>
       </c>
       <c r="C23" t="n">
-        <v>1025</v>
+        <v>1157</v>
       </c>
       <c r="D23" t="n">
         <v>2</v>
@@ -1030,7 +1030,7 @@
         <v>2</v>
       </c>
       <c r="C24" t="n">
-        <v>503</v>
+        <v>1205</v>
       </c>
       <c r="D24" t="n">
         <v>2</v>
@@ -1055,19 +1055,19 @@
         <v>5</v>
       </c>
       <c r="C25" t="n">
-        <v>1048</v>
+        <v>3986</v>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E25" t="n">
-        <v>2112</v>
+        <v>2495</v>
       </c>
       <c r="F25" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G25" t="n">
-        <v>592</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26">
@@ -1077,10 +1077,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C26" t="n">
-        <v>977</v>
+        <v>1006</v>
       </c>
       <c r="D26" t="n">
         <v>2</v>
@@ -1102,22 +1102,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C27" t="n">
-        <v>3934</v>
+        <v>3960</v>
       </c>
       <c r="D27" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E27" t="n">
-        <v>1161</v>
+        <v>1439</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G27" t="n">
-        <v>11</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="28">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>2195</v>
+        <v>2675</v>
       </c>
       <c r="D28" t="n">
         <v>3</v>
       </c>
       <c r="E28" t="n">
-        <v>646</v>
+        <v>1023</v>
       </c>
       <c r="F28" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G28" t="n">
-        <v>58</v>
+        <v>805</v>
       </c>
     </row>
     <row r="29">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C29" t="n">
-        <v>3211</v>
+        <v>2229</v>
       </c>
       <c r="D29" t="n">
         <v>9</v>
       </c>
       <c r="E29" t="n">
-        <v>1892</v>
+        <v>1610</v>
       </c>
       <c r="F29" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="G29" t="n">
-        <v>337</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="30">
@@ -1177,22 +1177,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C30" t="n">
-        <v>8474</v>
+        <v>3867</v>
       </c>
       <c r="D30" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>3377</v>
+        <v>3614</v>
       </c>
       <c r="F30" t="n">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="G30" t="n">
-        <v>535</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="31">
@@ -1202,22 +1202,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C31" t="n">
-        <v>4915</v>
+        <v>2397</v>
       </c>
       <c r="D31" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E31" t="n">
-        <v>2572</v>
+        <v>2125</v>
       </c>
       <c r="F31" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="G31" t="n">
-        <v>456</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="32">
@@ -1227,22 +1227,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C32" t="n">
-        <v>4159</v>
+        <v>4813</v>
       </c>
       <c r="D32" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E32" t="n">
-        <v>1354</v>
+        <v>1737</v>
       </c>
       <c r="F32" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="G32" t="n">
-        <v>486</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="33">
@@ -1252,22 +1252,22 @@
         </is>
       </c>
       <c r="B33" t="n">
+        <v>11</v>
+      </c>
+      <c r="C33" t="n">
+        <v>5726</v>
+      </c>
+      <c r="D33" t="n">
         <v>9</v>
       </c>
-      <c r="C33" t="n">
-        <v>9751</v>
-      </c>
-      <c r="D33" t="n">
-        <v>4</v>
-      </c>
       <c r="E33" t="n">
-        <v>8620</v>
+        <v>8837</v>
       </c>
       <c r="F33" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G33" t="n">
-        <v>770</v>
+        <v>5626</v>
       </c>
     </row>
     <row r="34">
@@ -1277,22 +1277,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C34" t="n">
-        <v>9752</v>
+        <v>2862</v>
       </c>
       <c r="D34" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E34" t="n">
-        <v>12621</v>
+        <v>7431</v>
       </c>
       <c r="F34" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="G34" t="n">
-        <v>339</v>
+        <v>10081</v>
       </c>
     </row>
     <row r="35">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C35" t="n">
-        <v>4667</v>
+        <v>5215</v>
       </c>
       <c r="D35" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E35" t="n">
-        <v>3938</v>
+        <v>8074</v>
       </c>
       <c r="F35" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="G35" t="n">
-        <v>873</v>
+        <v>7218</v>
       </c>
     </row>
     <row r="36">
@@ -1327,22 +1327,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C36" t="n">
-        <v>4333</v>
+        <v>1119</v>
       </c>
       <c r="D36" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E36" t="n">
-        <v>5500</v>
+        <v>10287</v>
       </c>
       <c r="F36" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G36" t="n">
-        <v>446</v>
+        <v>772</v>
       </c>
     </row>
     <row r="37">
@@ -1352,22 +1352,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C37" t="n">
-        <v>6710</v>
+        <v>205</v>
       </c>
       <c r="D37" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>9450</v>
+        <v>2608</v>
       </c>
       <c r="F37" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G37" t="n">
-        <v>1842</v>
+        <v>11425</v>
       </c>
     </row>
     <row r="38">
@@ -1377,22 +1377,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>3036</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>5867</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>6242</v>
       </c>
     </row>
     <row r="39">
@@ -1402,22 +1402,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C39" t="n">
-        <v>3801</v>
+        <v>4915</v>
       </c>
       <c r="D39" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E39" t="n">
-        <v>498</v>
+        <v>2496</v>
       </c>
       <c r="F39" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G39" t="n">
-        <v>122</v>
+        <v>790</v>
       </c>
     </row>
     <row r="40">
@@ -1427,22 +1427,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C40" t="n">
-        <v>4619</v>
+        <v>2610</v>
       </c>
       <c r="D40" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>2012</v>
+        <v>1205</v>
       </c>
       <c r="F40" t="n">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="G40" t="n">
-        <v>418</v>
+        <v>3588</v>
       </c>
     </row>
     <row r="41">
@@ -1452,22 +1452,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C41" t="n">
-        <v>8862</v>
+        <v>4537</v>
       </c>
       <c r="D41" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E41" t="n">
-        <v>1213</v>
+        <v>1771</v>
       </c>
       <c r="F41" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="G41" t="n">
-        <v>687</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="42">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C42" t="n">
-        <v>6802</v>
+        <v>2341</v>
       </c>
       <c r="D42" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E42" t="n">
-        <v>1775</v>
+        <v>832</v>
       </c>
       <c r="F42" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="G42" t="n">
-        <v>218</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="43">
@@ -1502,22 +1502,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C43" t="n">
-        <v>10006</v>
+        <v>2277</v>
       </c>
       <c r="D43" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E43" t="n">
-        <v>2694</v>
+        <v>998</v>
       </c>
       <c r="F43" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G43" t="n">
-        <v>544</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="44">
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>9</v>
+      </c>
+      <c r="C44" t="n">
+        <v>3171</v>
+      </c>
+      <c r="D44" t="n">
         <v>6</v>
       </c>
-      <c r="C44" t="n">
-        <v>7335</v>
-      </c>
-      <c r="D44" t="n">
-        <v>9</v>
-      </c>
       <c r="E44" t="n">
-        <v>936</v>
+        <v>743</v>
       </c>
       <c r="F44" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G44" t="n">
-        <v>96</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="45">
@@ -1552,22 +1552,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>6688</v>
+        <v>2690</v>
       </c>
       <c r="D45" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E45" t="n">
-        <v>5942</v>
+        <v>3994</v>
       </c>
       <c r="F45" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G45" t="n">
-        <v>310</v>
+        <v>9231</v>
       </c>
     </row>
     <row r="46">
@@ -1577,22 +1577,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C46" t="n">
-        <v>6443</v>
+        <v>3492</v>
       </c>
       <c r="D46" t="n">
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>9532</v>
+        <v>12255</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="47">
@@ -1602,22 +1602,22 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C47" t="n">
-        <v>3847</v>
+        <v>4127</v>
       </c>
       <c r="D47" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E47" t="n">
-        <v>3278</v>
+        <v>5180</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>10387</v>
       </c>
     </row>
     <row r="48">
@@ -1627,22 +1627,22 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C48" t="n">
-        <v>4144</v>
+        <v>10217</v>
       </c>
       <c r="D48" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E48" t="n">
-        <v>10520</v>
+        <v>15263</v>
       </c>
       <c r="F48" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="G48" t="n">
-        <v>2178</v>
+        <v>7518</v>
       </c>
     </row>
     <row r="49">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C49" t="n">
-        <v>10269</v>
+        <v>7017</v>
       </c>
       <c r="D49" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E49" t="n">
-        <v>14590</v>
+        <v>10198</v>
       </c>
       <c r="F49" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="G49" t="n">
-        <v>877</v>
+        <v>4276</v>
       </c>
     </row>
     <row r="50">
@@ -1677,22 +1677,22 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C50" t="n">
-        <v>14545</v>
+        <v>2905</v>
       </c>
       <c r="D50" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E50" t="n">
-        <v>12658</v>
+        <v>11449</v>
       </c>
       <c r="F50" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G50" t="n">
-        <v>365</v>
+        <v>6719</v>
       </c>
     </row>
     <row r="51">
@@ -1789,10 +1789,10 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1877,22 +1877,22 @@
         </is>
       </c>
       <c r="B58" t="n">
+        <v>8</v>
+      </c>
+      <c r="C58" t="n">
+        <v>4611</v>
+      </c>
+      <c r="D58" t="n">
+        <v>4</v>
+      </c>
+      <c r="E58" t="n">
+        <v>2183</v>
+      </c>
+      <c r="F58" t="n">
         <v>3</v>
       </c>
-      <c r="C58" t="n">
-        <v>1507</v>
-      </c>
-      <c r="D58" t="n">
-        <v>3</v>
-      </c>
-      <c r="E58" t="n">
-        <v>2130</v>
-      </c>
-      <c r="F58" t="n">
-        <v>7</v>
-      </c>
       <c r="G58" t="n">
-        <v>282</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59">
@@ -1902,22 +1902,22 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C59" t="n">
-        <v>1944</v>
+        <v>1717</v>
       </c>
       <c r="D59" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E59" t="n">
-        <v>2817</v>
+        <v>789</v>
       </c>
       <c r="F59" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G59" t="n">
-        <v>188</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="60">
@@ -1927,22 +1927,22 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C60" t="n">
-        <v>699</v>
+        <v>3298</v>
       </c>
       <c r="D60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E60" t="n">
-        <v>1240</v>
+        <v>1374</v>
       </c>
       <c r="F60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G60" t="n">
-        <v>321</v>
+        <v>187</v>
       </c>
     </row>
     <row r="61">
@@ -1952,22 +1952,22 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C61" t="n">
-        <v>4970</v>
+        <v>9077</v>
       </c>
       <c r="D61" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E61" t="n">
-        <v>3223</v>
+        <v>532</v>
       </c>
       <c r="F61" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G61" t="n">
-        <v>51</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="62">
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2064,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G65" t="n">
-        <v>207</v>
+        <v>218</v>
       </c>
     </row>
     <row r="66">
@@ -2092,7 +2092,7 @@
         <v>7</v>
       </c>
       <c r="G66" t="n">
-        <v>168</v>
+        <v>180</v>
       </c>
     </row>
     <row r="67">
@@ -2102,10 +2102,10 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
@@ -2139,10 +2139,10 @@
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2155,7 +2155,7 @@
         <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>424</v>
+        <v>1085</v>
       </c>
       <c r="D69" t="n">
         <v>2</v>
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>169</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>1175</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G70" t="n">
-        <v>1057</v>
+        <v>402</v>
       </c>
     </row>
     <row r="71">
@@ -2227,22 +2227,22 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>866</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G72" t="n">
-        <v>922</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="73">
@@ -2252,22 +2252,22 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C73" t="n">
-        <v>2634</v>
+        <v>8307</v>
       </c>
       <c r="D73" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E73" t="n">
-        <v>3679</v>
+        <v>1735</v>
       </c>
       <c r="F73" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G73" t="n">
-        <v>735</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="74">
@@ -2277,22 +2277,22 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>1852</v>
+        <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>1659</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G74" t="n">
-        <v>1763</v>
+        <v>3422</v>
       </c>
     </row>
   </sheetData>
